--- a/data/trans_orig/P05A03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A03-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>850950</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>827778</v>
+        <v>826703</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>876319</v>
+        <v>876526</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8283164963485583</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8057602454270635</v>
+        <v>0.8047142613731172</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8530105447387426</v>
+        <v>0.8532116467732834</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1068</v>
@@ -765,19 +765,19 @@
         <v>1084228</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1053159</v>
+        <v>1056443</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1110021</v>
+        <v>1110176</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8276666504570486</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8039493194653464</v>
+        <v>0.8064562608542426</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8473561072671505</v>
+        <v>0.8474745281127607</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1926</v>
@@ -786,19 +786,19 @@
         <v>1935179</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1900286</v>
+        <v>1895589</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1972552</v>
+        <v>1971310</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8279522796745933</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8130235481923095</v>
+        <v>0.8110143353043902</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8439420256103672</v>
+        <v>0.8434110134887621</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>152065</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>130549</v>
+        <v>127461</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>174766</v>
+        <v>173454</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1480202247317563</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1270769454795649</v>
+        <v>0.124071118412761</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1701176278176119</v>
+        <v>0.1688405437743667</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>188</v>
@@ -836,19 +836,19 @@
         <v>195524</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>171192</v>
+        <v>171666</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>224981</v>
+        <v>221311</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1492573500185811</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1306828542293948</v>
+        <v>0.131044198095961</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1717432311089889</v>
+        <v>0.168942394949498</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>338</v>
@@ -857,19 +857,19 @@
         <v>347589</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>313156</v>
+        <v>313022</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>380422</v>
+        <v>383452</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.148713591671722</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1339815751840534</v>
+        <v>0.1339240687027414</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.162760742986755</v>
+        <v>0.1640571600756463</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>24310</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16342</v>
+        <v>15606</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>36219</v>
+        <v>35607</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02366327891968544</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01590703303825973</v>
+        <v>0.01519077016885164</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03525591142201648</v>
+        <v>0.03465993997303628</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -907,19 +907,19 @@
         <v>30229</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>21897</v>
+        <v>20956</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43728</v>
+        <v>41707</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02307599952437033</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01671537348337803</v>
+        <v>0.01599699446120642</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03338076367138779</v>
+        <v>0.0318377833732157</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>55</v>
@@ -928,19 +928,19 @@
         <v>54539</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>40969</v>
+        <v>41099</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>69157</v>
+        <v>68843</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02333412865368474</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01752820807114097</v>
+        <v>0.01758393061653578</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02958853241312463</v>
+        <v>0.02945382392254092</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>1398125</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1364918</v>
+        <v>1363989</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1429219</v>
+        <v>1426583</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8324035465175034</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8126328828903833</v>
+        <v>0.8120799785492265</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8509159399128201</v>
+        <v>0.8493463585202974</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1276</v>
@@ -1053,19 +1053,19 @@
         <v>1297911</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1267827</v>
+        <v>1266615</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1328122</v>
+        <v>1329753</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8219223273822033</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8028711240334114</v>
+        <v>0.8021041509978095</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8410540549174038</v>
+        <v>0.8420869748670702</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2632</v>
@@ -1074,19 +1074,19 @@
         <v>2696036</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2649426</v>
+        <v>2650604</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2734416</v>
+        <v>2736638</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.827324570891351</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8130216704178499</v>
+        <v>0.813383068286593</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.839102079726336</v>
+        <v>0.8397840970377077</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>235686</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>210050</v>
+        <v>210207</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>269013</v>
+        <v>266051</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1403205633949232</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1250579686436405</v>
+        <v>0.1251513029634142</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1601628983776609</v>
+        <v>0.1583993133296152</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>219</v>
@@ -1124,19 +1124,19 @@
         <v>227629</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>199973</v>
+        <v>200805</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>254235</v>
+        <v>258087</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1441493790893076</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1266359657528909</v>
+        <v>0.1271630583681332</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1609982055086173</v>
+        <v>0.1634373525082202</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>454</v>
@@ -1145,19 +1145,19 @@
         <v>463314</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>427408</v>
+        <v>425221</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>504305</v>
+        <v>504866</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1421759259570238</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1311574849653588</v>
+        <v>0.1304862306092445</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1547544620474145</v>
+        <v>0.1549268260209783</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>45813</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34191</v>
+        <v>33858</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61628</v>
+        <v>59965</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0272758900875734</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02035610565904147</v>
+        <v>0.02015834978327112</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03669149247497188</v>
+        <v>0.03570163483042838</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -1195,19 +1195,19 @@
         <v>53577</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40209</v>
+        <v>40252</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69321</v>
+        <v>69882</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0339282935284891</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02546292598981383</v>
+        <v>0.02549039000997714</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04389836256274039</v>
+        <v>0.04425365009022289</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>96</v>
@@ -1216,19 +1216,19 @@
         <v>99390</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82963</v>
+        <v>81407</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>122552</v>
+        <v>120322</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03049950315162517</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02545846528023345</v>
+        <v>0.0249812613846178</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03760706592599645</v>
+        <v>0.03692273612811892</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>435784</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>416159</v>
+        <v>414813</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>453621</v>
+        <v>453911</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8024239505413011</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7662873747323666</v>
+        <v>0.7638092529629864</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8352665088295473</v>
+        <v>0.8358015838232256</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>359</v>
@@ -1341,19 +1341,19 @@
         <v>375387</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>357751</v>
+        <v>357278</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>393234</v>
+        <v>392375</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7947204734127736</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7573839470939833</v>
+        <v>0.7563819711247827</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8325034471020025</v>
+        <v>0.8306846537541802</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>777</v>
@@ -1362,19 +1362,19 @@
         <v>811171</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>783963</v>
+        <v>783923</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>836109</v>
+        <v>837987</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7988405212786736</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7720453226796204</v>
+        <v>0.7720065832401761</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8233993616996663</v>
+        <v>0.8252483928301511</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>87635</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71201</v>
+        <v>71287</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106605</v>
+        <v>105672</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.161364254767367</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1311051051330802</v>
+        <v>0.1312631677001804</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1962951016963001</v>
+        <v>0.1945766857821271</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>76</v>
@@ -1412,19 +1412,19 @@
         <v>82573</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66007</v>
+        <v>67474</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>99668</v>
+        <v>100512</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1748127912299364</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1397419648442295</v>
+        <v>0.1428464970460509</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2110039873258129</v>
+        <v>0.2127910736466183</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>160</v>
@@ -1433,19 +1433,19 @@
         <v>170207</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>148035</v>
+        <v>146517</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>196451</v>
+        <v>197991</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1676201153736147</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1457845943031499</v>
+        <v>0.1442900071753335</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1934647545268637</v>
+        <v>0.1949816954876326</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>19666</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12088</v>
+        <v>11911</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31468</v>
+        <v>31191</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03621179469133188</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02225720723479383</v>
+        <v>0.02193261678640715</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05794351770534352</v>
+        <v>0.05743248045939495</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -1483,19 +1483,19 @@
         <v>14391</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8146</v>
+        <v>8290</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23544</v>
+        <v>25413</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0304667353572899</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01724625972714039</v>
+        <v>0.01755020194619991</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0498437188448807</v>
+        <v>0.05380017846631074</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>31</v>
@@ -1504,19 +1504,19 @@
         <v>34057</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23272</v>
+        <v>23636</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47959</v>
+        <v>48031</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03353936334771173</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02291869679143453</v>
+        <v>0.02327654596110171</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0472302881734932</v>
+        <v>0.04730078929730495</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>2684860</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2642955</v>
+        <v>2635690</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2728616</v>
+        <v>2728037</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8261020120350301</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8132082666673971</v>
+        <v>0.810972800545828</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8395650107940882</v>
+        <v>0.8393869898028913</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2703</v>
@@ -1629,19 +1629,19 @@
         <v>2757525</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2710256</v>
+        <v>2714539</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2803989</v>
+        <v>2804326</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8203385294266066</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.806276319664555</v>
+        <v>0.8075506388636946</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8341609141896589</v>
+        <v>0.8342614265895408</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5335</v>
@@ -1650,19 +1650,19 @@
         <v>5442386</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5377395</v>
+        <v>5382809</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5504750</v>
+        <v>5504000</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8231717088889045</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8133417683983388</v>
+        <v>0.814160589373249</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8326043596598954</v>
+        <v>0.8324910371189155</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>475385</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>436145</v>
+        <v>436595</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>512932</v>
+        <v>521859</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1462708308913893</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1341969755421832</v>
+        <v>0.1343354929857836</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1578234705935006</v>
+        <v>0.1605704185221701</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>483</v>
@@ -1700,19 +1700,19 @@
         <v>505726</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>463762</v>
+        <v>465847</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>548421</v>
+        <v>544982</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1504488158806443</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1379650438087042</v>
+        <v>0.1385852924144979</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1631501523775635</v>
+        <v>0.1621271604832091</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>952</v>
@@ -1721,19 +1721,19 @@
         <v>981111</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>923781</v>
+        <v>923661</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1042122</v>
+        <v>1036692</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1483950261723096</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1397237903119491</v>
+        <v>0.1397056120939882</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1576229792870585</v>
+        <v>0.1568017882641656</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>89789</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>72249</v>
+        <v>73604</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>107728</v>
+        <v>112933</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0276271570735806</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02223019340301642</v>
+        <v>0.02264711734809876</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03314671858759367</v>
+        <v>0.03474811192282472</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>94</v>
@@ -1771,19 +1771,19 @@
         <v>98197</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>79264</v>
+        <v>78883</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>119194</v>
+        <v>119193</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02921265469274908</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02358026303104099</v>
+        <v>0.02346692543884271</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03545922112115256</v>
+        <v>0.03545878890572022</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>182</v>
@@ -1792,19 +1792,19 @@
         <v>187986</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>160918</v>
+        <v>162873</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>216036</v>
+        <v>218939</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02843326493878588</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02433915310034036</v>
+        <v>0.02463487894411803</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03267589258653186</v>
+        <v>0.03311502775693384</v>
       </c>
     </row>
     <row r="19">
@@ -2135,19 +2135,19 @@
         <v>873774</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>852659</v>
+        <v>853174</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>891427</v>
+        <v>892831</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8993284886180467</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8775953798931971</v>
+        <v>0.8781256880988636</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9174977448309832</v>
+        <v>0.9189428022269641</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1092</v>
@@ -2156,19 +2156,19 @@
         <v>1174446</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1149679</v>
+        <v>1148240</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1196885</v>
+        <v>1195175</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8907633806843062</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8719793267349357</v>
+        <v>0.8708874448674805</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9077825375702533</v>
+        <v>0.9064857881365138</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1906</v>
@@ -2177,19 +2177,19 @@
         <v>2048220</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2016576</v>
+        <v>2017643</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2076133</v>
+        <v>2074703</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8943972339249313</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8805792996083149</v>
+        <v>0.8810451670384858</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9065862551885729</v>
+        <v>0.9059618354347403</v>
       </c>
     </row>
     <row r="5">
@@ -2206,19 +2206,19 @@
         <v>75286</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59801</v>
+        <v>59377</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>94416</v>
+        <v>94785</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07748741330642668</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0615502753056939</v>
+        <v>0.06111372931006039</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09717715711169479</v>
+        <v>0.09755674430284722</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>113</v>
@@ -2227,19 +2227,19 @@
         <v>118707</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>98590</v>
+        <v>98515</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>140758</v>
+        <v>141740</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09003401763611188</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07477569974589098</v>
+        <v>0.07471942871899784</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1067584365258085</v>
+        <v>0.107503472939001</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>182</v>
@@ -2248,19 +2248,19 @@
         <v>193993</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>165318</v>
+        <v>168698</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>219743</v>
+        <v>220980</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08471096518248596</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0721895636483105</v>
+        <v>0.07366539336972849</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09595528113653261</v>
+        <v>0.09649561565260097</v>
       </c>
     </row>
     <row r="6">
@@ -2277,19 +2277,19 @@
         <v>22525</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14402</v>
+        <v>14187</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34189</v>
+        <v>33329</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02318409807552657</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01482271474360014</v>
+        <v>0.01460175337923915</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03518866331535734</v>
+        <v>0.03430381448175349</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -2298,19 +2298,19 @@
         <v>25318</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16181</v>
+        <v>17307</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37753</v>
+        <v>39446</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01920260167958196</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01227262537305094</v>
+        <v>0.01312639754010379</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02863392029748327</v>
+        <v>0.02991762336442411</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>45</v>
@@ -2319,19 +2319,19 @@
         <v>47843</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>35456</v>
+        <v>35185</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>64724</v>
+        <v>63549</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02089180089258268</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0154823727236687</v>
+        <v>0.01536441933419196</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02826287171724871</v>
+        <v>0.02774989515275645</v>
       </c>
     </row>
     <row r="7">
@@ -2423,19 +2423,19 @@
         <v>1687975</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1656268</v>
+        <v>1656517</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1717031</v>
+        <v>1716703</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8672703455231864</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.850979473878554</v>
+        <v>0.851107126215745</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.882198897496417</v>
+        <v>0.882030627565618</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1399</v>
@@ -2444,19 +2444,19 @@
         <v>1502447</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1474670</v>
+        <v>1470966</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1534263</v>
+        <v>1530446</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8654181337823471</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8494182497335363</v>
+        <v>0.8472846103105605</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8837443368197706</v>
+        <v>0.8815456406631322</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2998</v>
@@ -2465,19 +2465,19 @@
         <v>3190422</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3147111</v>
+        <v>3145756</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3228803</v>
+        <v>3229519</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8663971074264709</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8546355636622981</v>
+        <v>0.8542676803800476</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8768201016589877</v>
+        <v>0.8770144836246603</v>
       </c>
     </row>
     <row r="9">
@@ -2494,19 +2494,19 @@
         <v>218103</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>192076</v>
+        <v>191592</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>252629</v>
+        <v>247907</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1120599086196831</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09868747029903538</v>
+        <v>0.09843857362003081</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.129798951216005</v>
+        <v>0.1273727519412084</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>183</v>
@@ -2515,19 +2515,19 @@
         <v>196379</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>167276</v>
+        <v>169168</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>223903</v>
+        <v>222530</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1131157029227961</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09635188990340955</v>
+        <v>0.09744178583609245</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1289694408003556</v>
+        <v>0.1281785327090518</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>388</v>
@@ -2536,19 +2536,19 @@
         <v>414482</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>379269</v>
+        <v>377225</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>453865</v>
+        <v>454194</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1125576701808725</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1029949137291283</v>
+        <v>0.1024399170808915</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.123252551000121</v>
+        <v>0.1233419371325354</v>
       </c>
     </row>
     <row r="10">
@@ -2565,19 +2565,19 @@
         <v>40230</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28009</v>
+        <v>27869</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56519</v>
+        <v>57236</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02066974585713053</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01439087394922275</v>
+        <v>0.01431911244176618</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02903893103776732</v>
+        <v>0.02940747790750995</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -2586,19 +2586,19 @@
         <v>37267</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26153</v>
+        <v>26400</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51729</v>
+        <v>54309</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02146616329485673</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0150644100341418</v>
+        <v>0.01520645278760671</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02979645595838756</v>
+        <v>0.03128233137792487</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -2607,19 +2607,19 @@
         <v>77497</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59394</v>
+        <v>60782</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>98001</v>
+        <v>102364</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02104522239265659</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01612905370573901</v>
+        <v>0.01650620286082299</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02661342968628186</v>
+        <v>0.02779811552674735</v>
       </c>
     </row>
     <row r="11">
@@ -2711,19 +2711,19 @@
         <v>413999</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>397712</v>
+        <v>396301</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>429569</v>
+        <v>427651</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8679337885138573</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8337874980084569</v>
+        <v>0.8308296363899323</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9005752225038126</v>
+        <v>0.8965536291542598</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>351</v>
@@ -2732,19 +2732,19 @@
         <v>388264</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>370256</v>
+        <v>371412</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>403549</v>
+        <v>403528</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8585999536390498</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8187782850031943</v>
+        <v>0.8213338150447178</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.892400320292832</v>
+        <v>0.8923550082341467</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>729</v>
@@ -2753,19 +2753,19 @@
         <v>802263</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>774943</v>
+        <v>779310</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>823069</v>
+        <v>823912</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8633913689430947</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8339898753471001</v>
+        <v>0.8386894940421977</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8857826440583929</v>
+        <v>0.8866900942742847</v>
       </c>
     </row>
     <row r="13">
@@ -2782,19 +2782,19 @@
         <v>47126</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33820</v>
+        <v>33210</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61109</v>
+        <v>61925</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09879853764752713</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07090194971190411</v>
+        <v>0.06962258313737531</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.128113026572684</v>
+        <v>0.1298240347740556</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -2803,19 +2803,19 @@
         <v>52824</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39503</v>
+        <v>38776</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71565</v>
+        <v>67103</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1168134593447434</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08735563708708087</v>
+        <v>0.08574792404167565</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1582572316039735</v>
+        <v>0.1483900577539068</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>88</v>
@@ -2824,19 +2824,19 @@
         <v>99950</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81226</v>
+        <v>79727</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>123879</v>
+        <v>120360</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1075657093385606</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08741525530801425</v>
+        <v>0.08580183382289208</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1333182384940977</v>
+        <v>0.1295305820466874</v>
       </c>
     </row>
     <row r="14">
@@ -2853,19 +2853,19 @@
         <v>15868</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8790</v>
+        <v>9219</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27793</v>
+        <v>27765</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03326767383861558</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01842874475555503</v>
+        <v>0.01932701124067213</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05826799578502736</v>
+        <v>0.05820850444804097</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -2874,19 +2874,19 @@
         <v>11118</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5687</v>
+        <v>6420</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19342</v>
+        <v>19865</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02458658701620676</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01257527474048622</v>
+        <v>0.01419660882420397</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04277245781650018</v>
+        <v>0.04392921409114456</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -2895,19 +2895,19 @@
         <v>26987</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17801</v>
+        <v>17164</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>42096</v>
+        <v>38987</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02904292171834483</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01915723436335391</v>
+        <v>0.01847211642758049</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0453037699313756</v>
+        <v>0.04195747809236287</v>
       </c>
     </row>
     <row r="15">
@@ -2999,19 +2999,19 @@
         <v>2975748</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2934514</v>
+        <v>2937223</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3015232</v>
+        <v>3017449</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.876538302802096</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8643924557702802</v>
+        <v>0.8651905711271786</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8881689086201476</v>
+        <v>0.8888219542734758</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2842</v>
@@ -3020,19 +3020,19 @@
         <v>3065157</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3025944</v>
+        <v>3027831</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3107098</v>
+        <v>3104479</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.874068188859604</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.862886244211642</v>
+        <v>0.8634242680725236</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8860281226704534</v>
+        <v>0.8852812306441146</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5633</v>
@@ -3041,19 +3041,19 @@
         <v>6040905</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5980926</v>
+        <v>5981309</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6093345</v>
+        <v>6096901</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8752832239541176</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8665927531691793</v>
+        <v>0.866648194043916</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8828815167413103</v>
+        <v>0.8833967672539456</v>
       </c>
     </row>
     <row r="17">
@@ -3070,19 +3070,19 @@
         <v>340515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>306593</v>
+        <v>304462</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>380441</v>
+        <v>377930</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1003023122756721</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09031015274948523</v>
+        <v>0.08968245324275162</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1120629174464724</v>
+        <v>0.1113233536979391</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>340</v>
@@ -3091,19 +3091,19 @@
         <v>367910</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>330567</v>
+        <v>334980</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>404975</v>
+        <v>404322</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1049143133382651</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09426546865387106</v>
+        <v>0.09552364866156944</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1154838366885185</v>
+        <v>0.1152975319354916</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>658</v>
@@ -3112,19 +3112,19 @@
         <v>708425</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>660180</v>
+        <v>658328</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>761004</v>
+        <v>763482</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1026456960690022</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0956553348779328</v>
+        <v>0.09538692124830665</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1102639361502798</v>
+        <v>0.1106230169451582</v>
       </c>
     </row>
     <row r="18">
@@ -3141,19 +3141,19 @@
         <v>78623</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60765</v>
+        <v>61164</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>97329</v>
+        <v>99787</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02315938492223189</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01789905347711761</v>
+        <v>0.01801661662906067</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02866931318468025</v>
+        <v>0.02939335709131653</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>67</v>
@@ -3162,19 +3162,19 @@
         <v>73704</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>57271</v>
+        <v>56740</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>91411</v>
+        <v>92254</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02101749780213083</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01633159450233593</v>
+        <v>0.01618026708329627</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02606707127281029</v>
+        <v>0.02630752801571089</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>138</v>
@@ -3183,19 +3183,19 @@
         <v>152327</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>128623</v>
+        <v>127223</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>180310</v>
+        <v>181112</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0220710799768802</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01863656550342831</v>
+        <v>0.01843366007804491</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02612553855854281</v>
+        <v>0.02624183338158259</v>
       </c>
     </row>
     <row r="19">
@@ -3526,19 +3526,19 @@
         <v>647209</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>628372</v>
+        <v>629546</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>663970</v>
+        <v>665607</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8650258477579739</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8398494213851737</v>
+        <v>0.8414183555228349</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8874273047731753</v>
+        <v>0.8896153107989158</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>749</v>
@@ -3547,19 +3547,19 @@
         <v>833112</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>809853</v>
+        <v>809008</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>855863</v>
+        <v>854228</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8450778412751916</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8214847662932593</v>
+        <v>0.8206278419510545</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8681559415749629</v>
+        <v>0.8664975868501379</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1402</v>
@@ -3568,19 +3568,19 @@
         <v>1480320</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1448653</v>
+        <v>1447429</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1509762</v>
+        <v>1506634</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8536849369224103</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8354227824183619</v>
+        <v>0.8347166486805486</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8706636440118172</v>
+        <v>0.8688597211521122</v>
       </c>
     </row>
     <row r="5">
@@ -3597,19 +3597,19 @@
         <v>74094</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59631</v>
+        <v>59353</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>90192</v>
+        <v>91194</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09902976248557586</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07970023793343108</v>
+        <v>0.07932818107799036</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.120546157569204</v>
+        <v>0.1218852979563224</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -3618,19 +3618,19 @@
         <v>113537</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91692</v>
+        <v>94508</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>133806</v>
+        <v>136057</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1151674523216217</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09300878789517641</v>
+        <v>0.09586533518644913</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1357280380844871</v>
+        <v>0.1380112287600823</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>178</v>
@@ -3639,19 +3639,19 @@
         <v>187630</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>162991</v>
+        <v>163511</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>217045</v>
+        <v>214243</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1082044186939816</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09399543013810877</v>
+        <v>0.094294813279651</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1251674530173987</v>
+        <v>0.1235518539029585</v>
       </c>
     </row>
     <row r="6">
@@ -3668,19 +3668,19 @@
         <v>26893</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17782</v>
+        <v>17254</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38058</v>
+        <v>40082</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03594438975645029</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02376692621827007</v>
+        <v>0.02306145685740263</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05086613189680907</v>
+        <v>0.05357095411970021</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -3689,19 +3689,19 @@
         <v>39192</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>27846</v>
+        <v>28112</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>53739</v>
+        <v>54361</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03975470640318674</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02824633827250839</v>
+        <v>0.0285158454117491</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05451097780228334</v>
+        <v>0.05514198068682338</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>60</v>
@@ -3710,19 +3710,19 @@
         <v>66085</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>50747</v>
+        <v>50018</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>83741</v>
+        <v>83462</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03811064438360812</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02926545221397786</v>
+        <v>0.02884491757933218</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04829279006000179</v>
+        <v>0.04813141552383599</v>
       </c>
     </row>
     <row r="7">
@@ -3814,19 +3814,19 @@
         <v>1746093</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1712801</v>
+        <v>1709564</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1778047</v>
+        <v>1778126</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8464961398361289</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8303562580367708</v>
+        <v>0.8287872054991536</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8619872188683625</v>
+        <v>0.8620256081103385</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1585</v>
@@ -3835,19 +3835,19 @@
         <v>1645740</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1611327</v>
+        <v>1609337</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1677858</v>
+        <v>1676689</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8346479533862345</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8171953360201308</v>
+        <v>0.8161859844255562</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8509368085841846</v>
+        <v>0.8503441429148272</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3232</v>
@@ -3856,19 +3856,19 @@
         <v>3391833</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3336503</v>
+        <v>3348577</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3435646</v>
+        <v>3441593</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8407055983044246</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8269914950784583</v>
+        <v>0.8299843033108593</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8515653330110006</v>
+        <v>0.8530392688542083</v>
       </c>
     </row>
     <row r="9">
@@ -3885,19 +3885,19 @@
         <v>253106</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>222451</v>
+        <v>226058</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>285084</v>
+        <v>287770</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1227042960440792</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1078428862355187</v>
+        <v>0.1095917806716514</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1382069108659947</v>
+        <v>0.1395095257806188</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>236</v>
@@ -3906,19 +3906,19 @@
         <v>248875</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>221434</v>
+        <v>218809</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>282651</v>
+        <v>281727</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1262184111062528</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1123015765909812</v>
+        <v>0.1109705917736268</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1433484724685709</v>
+        <v>0.1428799721104167</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>470</v>
@@ -3927,19 +3927,19 @@
         <v>501980</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>462256</v>
+        <v>455477</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>550137</v>
+        <v>541392</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1244217427858871</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1145755977091474</v>
+        <v>0.1128952281528073</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1363578129990599</v>
+        <v>0.1341902764469137</v>
       </c>
     </row>
     <row r="10">
@@ -3956,19 +3956,19 @@
         <v>63531</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49461</v>
+        <v>49876</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82053</v>
+        <v>81649</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03079956411979195</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02397863204831108</v>
+        <v>0.02417971190602405</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03977872177864922</v>
+        <v>0.03958303593522025</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -3977,19 +3977,19 @@
         <v>77163</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60047</v>
+        <v>61722</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>95296</v>
+        <v>96996</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03913363550751267</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03045308349654297</v>
+        <v>0.03130286222527955</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04833010008827004</v>
+        <v>0.04919232233349427</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>131</v>
@@ -3998,19 +3998,19 @@
         <v>140694</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>118114</v>
+        <v>116783</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>165684</v>
+        <v>165350</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03487265890968833</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02927597770353325</v>
+        <v>0.02894610164373857</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04106682159486107</v>
+        <v>0.04098400733972386</v>
       </c>
     </row>
     <row r="11">
@@ -4102,19 +4102,19 @@
         <v>444660</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>424589</v>
+        <v>422360</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>461644</v>
+        <v>462077</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8247425168465106</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7875158122537018</v>
+        <v>0.7833816366090414</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8562446370710488</v>
+        <v>0.857047407933478</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>436</v>
@@ -4123,19 +4123,19 @@
         <v>453754</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>433483</v>
+        <v>436151</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>470365</v>
+        <v>471458</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8344790820948884</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.797200072307849</v>
+        <v>0.8021063536563696</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8650273914805665</v>
+        <v>0.867037365968671</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>844</v>
@@ -4144,19 +4144,19 @@
         <v>898413</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>872744</v>
+        <v>871412</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>922644</v>
+        <v>923160</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.829631509869756</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8059281384914393</v>
+        <v>0.804697573391385</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8520075776519623</v>
+        <v>0.8524840278908965</v>
       </c>
     </row>
     <row r="13">
@@ -4173,19 +4173,19 @@
         <v>75396</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61444</v>
+        <v>59887</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95928</v>
+        <v>94262</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1398432435372119</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1139640127077755</v>
+        <v>0.1110774865571987</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1779247031469662</v>
+        <v>0.1748336851966735</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -4194,19 +4194,19 @@
         <v>69861</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54429</v>
+        <v>53679</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>89202</v>
+        <v>85419</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1284778398907343</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1000975676779686</v>
+        <v>0.09871864867712388</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1640474309063414</v>
+        <v>0.1570910811600881</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>135</v>
@@ -4215,19 +4215,19 @@
         <v>145257</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124431</v>
+        <v>121439</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>170653</v>
+        <v>169349</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1341363666543959</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1149042938060409</v>
+        <v>0.1121418947990546</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1575883521971506</v>
+        <v>0.1563840565097454</v>
       </c>
     </row>
     <row r="14">
@@ -4244,19 +4244,19 @@
         <v>19094</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10945</v>
+        <v>11847</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31313</v>
+        <v>31418</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03541423961627757</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02030022264059919</v>
+        <v>0.02197301829191588</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05807839743439851</v>
+        <v>0.05827305459137475</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -4265,19 +4265,19 @@
         <v>20142</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11730</v>
+        <v>12475</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30493</v>
+        <v>30975</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03704307801437724</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02157133690187316</v>
+        <v>0.02294141959948005</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05607907015297613</v>
+        <v>0.05696487262378607</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -4286,19 +4286,19 @@
         <v>39236</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>27605</v>
+        <v>27419</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54378</v>
+        <v>54581</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03623212347584809</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02549183852400162</v>
+        <v>0.02532006980953964</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05021457621816162</v>
+        <v>0.05040266854802582</v>
       </c>
     </row>
     <row r="15">
@@ -4390,19 +4390,19 @@
         <v>2837962</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2791258</v>
+        <v>2795992</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2875781</v>
+        <v>2877324</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.847133553299309</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8331923311844908</v>
+        <v>0.8346054234738697</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8584225342063655</v>
+        <v>0.8588830752986347</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2770</v>
@@ -4411,19 +4411,19 @@
         <v>2932605</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2885261</v>
+        <v>2891974</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2976421</v>
+        <v>2976628</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8375583469754306</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8240366883740774</v>
+        <v>0.8259540577792158</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8500721884771515</v>
+        <v>0.8501314910773543</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5478</v>
@@ -4432,19 +4432,19 @@
         <v>5770566</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5701696</v>
+        <v>5711714</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5832341</v>
+        <v>5832413</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8422402272349198</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8321883517394821</v>
+        <v>0.8336505133648795</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8512565843099502</v>
+        <v>0.8512671403554309</v>
       </c>
     </row>
     <row r="17">
@@ -4461,19 +4461,19 @@
         <v>402596</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>372281</v>
+        <v>368470</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>443392</v>
+        <v>439688</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1201751828887305</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1111260690892156</v>
+        <v>0.1099885457279404</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1323526915061107</v>
+        <v>0.1312472923475413</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>402</v>
@@ -4482,19 +4482,19 @@
         <v>432272</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>394185</v>
+        <v>392048</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>473573</v>
+        <v>472763</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1234578095906299</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1125800478414742</v>
+        <v>0.111969882681506</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1352534931412625</v>
+        <v>0.135022131919424</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>783</v>
@@ -4503,19 +4503,19 @@
         <v>834868</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>781506</v>
+        <v>783275</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>890777</v>
+        <v>890058</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1218527407665182</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1140643750366969</v>
+        <v>0.1143225801414219</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1300129767491482</v>
+        <v>0.129907928284497</v>
       </c>
     </row>
     <row r="18">
@@ -4532,19 +4532,19 @@
         <v>109518</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>88648</v>
+        <v>89545</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>134187</v>
+        <v>132080</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03269126381196052</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02646147388796882</v>
+        <v>0.02672937705200652</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04005505098343155</v>
+        <v>0.03942592502799382</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>127</v>
@@ -4553,19 +4553,19 @@
         <v>136497</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>114499</v>
+        <v>113603</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>159901</v>
+        <v>160453</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03898384343393945</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03270107793062782</v>
+        <v>0.03244531000781409</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04566803741962645</v>
+        <v>0.04582583343220983</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>226</v>
@@ -4574,19 +4574,19 @@
         <v>246015</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>213540</v>
+        <v>216991</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>278580</v>
+        <v>280573</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03590703199856207</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03116713738503313</v>
+        <v>0.03167076533724133</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04065998705840715</v>
+        <v>0.04095096884602024</v>
       </c>
     </row>
     <row r="19">
@@ -4917,19 +4917,19 @@
         <v>520642</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>506048</v>
+        <v>505081</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>533736</v>
+        <v>533911</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9071442672784344</v>
+        <v>0.9071442672784346</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8817172536956644</v>
+        <v>0.8800325234971028</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9299581967127153</v>
+        <v>0.9302637989687653</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1277</v>
@@ -4938,19 +4938,19 @@
         <v>726917</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>711693</v>
+        <v>711988</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>740863</v>
+        <v>739646</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8982936603955732</v>
+        <v>0.8982936603955733</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8794808481301944</v>
+        <v>0.8798443309994221</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9155272971956055</v>
+        <v>0.9140238064389969</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1906</v>
@@ -4959,19 +4959,19 @@
         <v>1247559</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1227489</v>
+        <v>1228298</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1267188</v>
+        <v>1266980</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9019661885865559</v>
+        <v>0.9019661885865556</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8874555507542363</v>
+        <v>0.8880408952976675</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9161577852302297</v>
+        <v>0.9160072457326844</v>
       </c>
     </row>
     <row r="5">
@@ -4988,19 +4988,19 @@
         <v>36624</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25652</v>
+        <v>25378</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49434</v>
+        <v>49604</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06381230705525909</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04469565069118647</v>
+        <v>0.04421820260667329</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08613084261522896</v>
+        <v>0.08642803759216171</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -5009,19 +5009,19 @@
         <v>64064</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50941</v>
+        <v>52685</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>77211</v>
+        <v>78738</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.07916739272911336</v>
+        <v>0.07916739272911338</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06295124801655108</v>
+        <v>0.06510594884375839</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09541449528459656</v>
+        <v>0.09730057948947637</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>140</v>
@@ -5030,19 +5030,19 @@
         <v>100688</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>85090</v>
+        <v>85005</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>118814</v>
+        <v>118382</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.07279585394555477</v>
+        <v>0.07279585394555474</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06151908758699361</v>
+        <v>0.06145763131029752</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08590076407553096</v>
+        <v>0.08558807732386424</v>
       </c>
     </row>
     <row r="6">
@@ -5059,19 +5059,19 @@
         <v>16669</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10442</v>
+        <v>9952</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26577</v>
+        <v>25510</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02904342566630645</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01819432728280436</v>
+        <v>0.0173395249496306</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04630628465129603</v>
+        <v>0.04444707208728128</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -5080,19 +5080,19 @@
         <v>18239</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12271</v>
+        <v>12420</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25204</v>
+        <v>26336</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.02253894687531338</v>
+        <v>0.02253894687531339</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01516339762121366</v>
+        <v>0.01534851915136448</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0311462578109684</v>
+        <v>0.03254491702907037</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>47</v>
@@ -5101,19 +5101,19 @@
         <v>34908</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>25480</v>
+        <v>25367</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45667</v>
+        <v>46319</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02523795746788952</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01842157773636946</v>
+        <v>0.01833986067752129</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03301645642533514</v>
+        <v>0.03348801737091629</v>
       </c>
     </row>
     <row r="7">
@@ -5205,19 +5205,19 @@
         <v>2035802</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2000877</v>
+        <v>2003542</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2064208</v>
+        <v>2063551</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9162658079470999</v>
+        <v>0.9162658079471</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.900546984330532</v>
+        <v>0.9017464185487446</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9290509121026708</v>
+        <v>0.9287552049235325</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2661</v>
@@ -5226,19 +5226,19 @@
         <v>1967622</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1938084</v>
+        <v>1940258</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1989725</v>
+        <v>1991938</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9100978410557129</v>
+        <v>0.9100978410557127</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8964352347943788</v>
+        <v>0.8974409522684952</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9203211364509143</v>
+        <v>0.9213448750167278</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4485</v>
@@ -5247,19 +5247,19 @@
         <v>4003424</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3962391</v>
+        <v>3960936</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4043758</v>
+        <v>4038688</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9132239327480263</v>
+        <v>0.9132239327480265</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9038638689864978</v>
+        <v>0.9035318768387395</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9224245396776803</v>
+        <v>0.9212680809666594</v>
       </c>
     </row>
     <row r="9">
@@ -5276,19 +5276,19 @@
         <v>156451</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>132240</v>
+        <v>131641</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>186309</v>
+        <v>184102</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07041474948952699</v>
+        <v>0.070414749489527</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05951816680584972</v>
+        <v>0.0592485508191621</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08385316357773781</v>
+        <v>0.08285995315804721</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>199</v>
@@ -5297,19 +5297,19 @@
         <v>154470</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>133768</v>
+        <v>131913</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>181090</v>
+        <v>179491</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.07144810218081635</v>
+        <v>0.07144810218081633</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06187277578188232</v>
+        <v>0.06101479429682189</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08376067078172032</v>
+        <v>0.08302138299934861</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>340</v>
@@ -5318,19 +5318,19 @@
         <v>310921</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>275562</v>
+        <v>278638</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>347834</v>
+        <v>348116</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.07092437121397531</v>
+        <v>0.07092437121397532</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06285875186843194</v>
+        <v>0.06356041331849303</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07934475513026577</v>
+        <v>0.07940893275021881</v>
       </c>
     </row>
     <row r="10">
@@ -5347,19 +5347,19 @@
         <v>29594</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18460</v>
+        <v>18041</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46341</v>
+        <v>46684</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01331944256337307</v>
+        <v>0.01331944256337308</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008308328325776019</v>
+        <v>0.008119631419487225</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0208570219293628</v>
+        <v>0.02101130578421797</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -5368,19 +5368,19 @@
         <v>39897</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29805</v>
+        <v>29016</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54878</v>
+        <v>54223</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01845405676347085</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01378577738915522</v>
+        <v>0.01342117406944117</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02538321242343482</v>
+        <v>0.02508012556298179</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -5389,19 +5389,19 @@
         <v>69491</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53465</v>
+        <v>53060</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91973</v>
+        <v>90751</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.01585169603799816</v>
+        <v>0.01585169603799817</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0121959804020974</v>
+        <v>0.01210365228103305</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02097994472370989</v>
+        <v>0.02070134476748179</v>
       </c>
     </row>
     <row r="11">
@@ -5493,19 +5493,19 @@
         <v>630934</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>611656</v>
+        <v>612329</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>647409</v>
+        <v>649201</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8899954016079085</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8628021660266539</v>
+        <v>0.8637508995420122</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9132356011217427</v>
+        <v>0.9157632874083794</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>863</v>
@@ -5514,19 +5514,19 @@
         <v>636037</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>618472</v>
+        <v>618207</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>649990</v>
+        <v>649917</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8733784772143308</v>
+        <v>0.8733784772143307</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8492583155126505</v>
+        <v>0.8488954776375569</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8925387015044099</v>
+        <v>0.8924384894836658</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1464</v>
@@ -5535,19 +5535,19 @@
         <v>1266971</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1244129</v>
+        <v>1239439</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1290512</v>
+        <v>1288510</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8815751866207064</v>
+        <v>0.8815751866207067</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8656813949447099</v>
+        <v>0.8624182822809849</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8979551629090852</v>
+        <v>0.8965624245588164</v>
       </c>
     </row>
     <row r="13">
@@ -5564,19 +5564,19 @@
         <v>56721</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42917</v>
+        <v>42781</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73029</v>
+        <v>74210</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08001059503247211</v>
+        <v>0.08001059503247213</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06053929254402487</v>
+        <v>0.06034656167436014</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1030153106912459</v>
+        <v>0.1046800330136999</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>100</v>
@@ -5585,19 +5585,19 @@
         <v>69107</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57300</v>
+        <v>56752</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84202</v>
+        <v>83551</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09489444070109654</v>
+        <v>0.09489444070109652</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07868143639453086</v>
+        <v>0.07792928120103007</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1156222273483394</v>
+        <v>0.1147285171890871</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>158</v>
@@ -5606,19 +5606,19 @@
         <v>125828</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>106252</v>
+        <v>106581</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>149391</v>
+        <v>145718</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08755261528831375</v>
+        <v>0.08755261528831376</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07393154501447846</v>
+        <v>0.07416055564438336</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1039485525686972</v>
+        <v>0.1013923331542091</v>
       </c>
     </row>
     <row r="14">
@@ -5635,19 +5635,19 @@
         <v>21263</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13091</v>
+        <v>12897</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32940</v>
+        <v>35409</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0299940033596194</v>
+        <v>0.02999400335961941</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01846546925792138</v>
+        <v>0.01819252928998591</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04646579817882113</v>
+        <v>0.04994849252469347</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>33</v>
@@ -5656,19 +5656,19 @@
         <v>23105</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16438</v>
+        <v>16571</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33938</v>
+        <v>33194</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.03172708208457269</v>
+        <v>0.03172708208457268</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02257225005668518</v>
+        <v>0.02275521527899147</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04660261725775557</v>
+        <v>0.04558052674408704</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>52</v>
@@ -5677,19 +5677,19 @@
         <v>44369</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>33729</v>
+        <v>33069</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>59093</v>
+        <v>60177</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03087219809097971</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02346913494177054</v>
+        <v>0.02300990183400108</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04111764545621297</v>
+        <v>0.04187223253510815</v>
       </c>
     </row>
     <row r="15">
@@ -5781,19 +5781,19 @@
         <v>3187378</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3150956</v>
+        <v>3147724</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3223518</v>
+        <v>3223461</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9094581653106056</v>
+        <v>0.9094581653106057</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8990658132489203</v>
+        <v>0.8981436951163256</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9197701506406583</v>
+        <v>0.9197538385525891</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4801</v>
@@ -5802,19 +5802,19 @@
         <v>3330576</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3295348</v>
+        <v>3295389</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3362643</v>
+        <v>3363919</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9002874842639299</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8907651157343086</v>
+        <v>0.8907761122945754</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9089556392611274</v>
+        <v>0.9093004544491163</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7855</v>
@@ -5823,19 +5823,19 @@
         <v>6517954</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6467397</v>
+        <v>6464811</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6568113</v>
+        <v>6564475</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9047488637420906</v>
+        <v>0.9047488637420907</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8977311395256364</v>
+        <v>0.8973722317845897</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9117113839140448</v>
+        <v>0.9112064398602</v>
       </c>
     </row>
     <row r="17">
@@ -5852,19 +5852,19 @@
         <v>249796</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>217580</v>
+        <v>219281</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>281833</v>
+        <v>285782</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07127453657996449</v>
+        <v>0.07127453657996452</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06208230790916413</v>
+        <v>0.06256771812589196</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08041582753024654</v>
+        <v>0.08154252284668895</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>399</v>
@@ -5873,19 +5873,19 @@
         <v>287641</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>259272</v>
+        <v>257877</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>320887</v>
+        <v>320776</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07775209764953728</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07008372172668757</v>
+        <v>0.06970663071071513</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08673897040744821</v>
+        <v>0.08670904746482959</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>638</v>
@@ -5894,19 +5894,19 @@
         <v>537436</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>491566</v>
+        <v>495384</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>582722</v>
+        <v>582737</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07460087497837044</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06823359252732436</v>
+        <v>0.06876357393204929</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08088696269192622</v>
+        <v>0.08088903717077459</v>
       </c>
     </row>
     <row r="18">
@@ -5923,19 +5923,19 @@
         <v>67526</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>51308</v>
+        <v>51599</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>87985</v>
+        <v>91042</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01926729810942988</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01463977837746029</v>
+        <v>0.01472291874384595</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02510478328870865</v>
+        <v>0.02597708785210511</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>111</v>
@@ -5944,19 +5944,19 @@
         <v>81242</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>66406</v>
+        <v>67631</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>98218</v>
+        <v>101326</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02196041808653289</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01795007352933075</v>
+        <v>0.01828139249969476</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0265494260117863</v>
+        <v>0.02738946270721896</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>169</v>
@@ -5965,19 +5965,19 @@
         <v>148768</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>127167</v>
+        <v>126351</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>175874</v>
+        <v>177322</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02065026127953901</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01765183641794094</v>
+        <v>0.01753856480216415</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02441285596519445</v>
+        <v>0.02461377199623154</v>
       </c>
     </row>
     <row r="19">
